--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.4405181256452905</v>
+        <v>0.9187528026723889</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.409941361951999</v>
+        <v>1.886536026929251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3194075390229204</v>
+        <v>0.2058372796573881</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>96.66888404470129</v>
+        <v>97.71058970844493</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>96.49789710823752</v>
+        <v>93.54218735965073</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>96.41675866305141</v>
+        <v>96.26978552796047</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>-0.08119763661264637</v>
+        <v>0.1709556535546991</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.2866183481352838</v>
+        <v>0.3667275675725769</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.2710850786054509</v>
+        <v>0.3353156791339543</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -645,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>-0.9122723386200297</v>
+        <v>-0.6331315114025067</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>0.4113190245356685</v>
+        <v>0.2180822195408832</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>0.1930423098121477</v>
+        <v>-0.03931437522540901</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -669,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>-0.3492494368483492</v>
+        <v>-0.2423051239158465</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0.6654212287769392</v>
+        <v>0.7476027935334263</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -685,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>-0.5332902646038626</v>
+        <v>-0.7428876342878813</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>73.73318742809629</v>
+        <v>-1.718306364620022</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>78.41975940535978</v>
+        <v>28.3628763538837</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>44.84596241133172</v>
+        <v>-39.16836989382747</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="G20">
-        <v>97.1145069306331</v>
+        <v>97.33718409582383</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>97.78238358964433</v>
+        <v>96.37610055138501</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="G22">
-        <v>97.67691269200594</v>
+        <v>98.09989924092648</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2776295232202679</v>
+        <v>-0.6190711210521657</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -749,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.35684839200696</v>
+        <v>0.6841272603041058</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -757,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>96.22066946782472</v>
+        <v>97.5104499833141</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>96.22552106146235</v>
+        <v>96.5701498421321</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -773,7 +773,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.2334122008658463</v>
+        <v>-0.2508026900248366</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -781,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>-0.1679245645566553</v>
+        <v>-0.1531654487793082</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -789,7 +789,7 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>0.06898288937608429</v>
+        <v>0.1298021208374179</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>-0.2062054282243773</v>
+        <v>-0.2688808903732567</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -805,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>-0.5852623660502975</v>
+        <v>-0.3808122002884384</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -813,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="E32">
-        <v>1.133436398252976</v>
+        <v>0.8061354655834801</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -821,7 +821,7 @@
         <v>38</v>
       </c>
       <c r="F33">
-        <v>80.26014025552981</v>
+        <v>4.260618407249224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -829,7 +829,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>84.95208656254431</v>
+        <v>28.13318486538547</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="G35">
-        <v>97.17927151147113</v>
+        <v>98.44083755300801</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -845,7 +845,7 @@
         <v>41</v>
       </c>
       <c r="G36">
-        <v>97.61000852128306</v>
+        <v>98.61522676209977</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>-1.027439295477478</v>
+        <v>-1.242244261924974</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -861,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5660063633679107</v>
+        <v>-0.6600914489611678</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -869,7 +869,7 @@
         <v>44</v>
       </c>
       <c r="H39">
-        <v>96.58343123875181</v>
+        <v>96.08358411283866</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -877,7 +877,7 @@
         <v>45</v>
       </c>
       <c r="H40">
-        <v>96.01235846990146</v>
+        <v>90.99781590956033</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>0.3117431660606956</v>
+        <v>0.7658504971464016</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -893,7 +893,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>0.1366957962906381</v>
+        <v>0.0391701932455986</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -901,7 +901,7 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>-0.1447500954305559</v>
+        <v>-0.04861296320771899</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>0.06328752474200382</v>
+        <v>0.0497594565789778</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -917,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <v>0.09098572268222756</v>
+        <v>-0.08599285014618893</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -925,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="E46">
-        <v>0.08275708606246597</v>
+        <v>0.1243771677100176</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="F47">
-        <v>84.15451670511504</v>
+        <v>-0.7516248542411386</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -941,7 +941,7 @@
         <v>53</v>
       </c>
       <c r="F48">
-        <v>77.41971729593872</v>
+        <v>29.48661215871149</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -949,7 +949,7 @@
         <v>54</v>
       </c>
       <c r="G49">
-        <v>97.6196177985009</v>
+        <v>98.10516031525961</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -957,7 +957,7 @@
         <v>55</v>
       </c>
       <c r="G50">
-        <v>97.57168108350399</v>
+        <v>98.06278609418102</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>d=1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>d=5</t>
   </si>
   <si>
+    <t>d=6</t>
+  </si>
+  <si>
     <t>d=7</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
     <t>ARMA_I(0,5,2)</t>
   </si>
   <si>
+    <t>ARMA_I(0,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,1)</t>
+  </si>
+  <si>
+    <t>ARMA_I(0,6,2)</t>
+  </si>
+  <si>
     <t>ARMA_I(0,7,0)</t>
   </si>
   <si>
@@ -136,6 +148,12 @@
     <t>ARMA_I(1,5,1)</t>
   </si>
   <si>
+    <t>ARMA_I(1,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(1,6,1)</t>
+  </si>
+  <si>
     <t>ARMA_I(1,7,0)</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
   </si>
   <si>
     <t>ARMA_I(2,5,2)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,0)</t>
+  </si>
+  <si>
+    <t>ARMA_I(2,6,2)</t>
   </si>
   <si>
     <t>ARMA_I(2,7,0)</t>
@@ -539,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,396 +591,455 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.9187528026723889</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1.886536026929251</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.2058372796573881</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>97.71058970844493</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>93.54218735965073</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>96.26978552796047</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0.1709556535546991</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.3667275675725769</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0.3353156791339543</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>-0.6331315114025067</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0.2180822195408832</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>-0.03931437522540901</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>-0.2423051239158465</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0.7476027935334263</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>-0.7428876342878813</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>-1.718306364620022</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>28.3628763538837</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>-39.16836989382747</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20">
+        <v>98.81619798517222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>99.11933192938405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>97.82771226540473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
         <v>97.33718409582383</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
         <v>96.37610055138501</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25">
         <v>98.09989924092648</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>-0.6190711210521657</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>0.6841272603041058</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
         <v>97.5104499833141</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29">
         <v>96.5701498421321</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
         <v>-0.2508026900248366</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
         <v>-0.1531654487793082</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
         <v>0.1298021208374179</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
         <v>-0.2688808903732567</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
         <v>-0.3808122002884384</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <v>0.8061354655834801</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
         <v>4.260618407249224</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
         <v>28.13318486538547</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>98.80431091244064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>98.43771467268675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40">
         <v>98.44083755300801</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36">
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
         <v>98.61522676209977</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
         <v>-1.242244261924974</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
         <v>-0.6600914489611678</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39">
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44">
         <v>96.08358411283866</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40">
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45">
         <v>90.99781590956033</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
         <v>0.7658504971464016</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
         <v>0.0391701932455986</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
         <v>-0.04861296320771899</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44">
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
         <v>0.0497594565789778</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45">
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
         <v>-0.08599285014618893</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46">
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
         <v>0.1243771677100176</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
         <v>-0.7516248542411386</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48">
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53">
         <v>29.48661215871149</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49">
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>96.41618907505205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55">
+        <v>95.89417146762578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56">
         <v>98.10516031525961</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50">
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57">
         <v>98.06278609418102</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_3_proceso_Sieve_Bootstrap.xlsx
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>97.71058970844493</v>
+        <v>95.63254537748651</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>93.54218735965073</v>
+        <v>95.97187477484948</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>96.26978552796047</v>
+        <v>96.37304842850502</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,7 +744,7 @@
         <v>26</v>
       </c>
       <c r="G20">
-        <v>98.81619798517222</v>
+        <v>97.36876325527616</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="G21">
-        <v>99.11933192938405</v>
+        <v>97.48742861060276</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -760,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="G22">
-        <v>97.82771226540473</v>
+        <v>98.17268840828255</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -768,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="H23">
-        <v>97.33718409582383</v>
+        <v>98.54592461718237</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>96.37610055138501</v>
+        <v>98.58871988640556</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -784,7 +784,7 @@
         <v>31</v>
       </c>
       <c r="H25">
-        <v>98.09989924092648</v>
+        <v>98.80991174912796</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -808,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="I28">
-        <v>97.5104499833141</v>
+        <v>95.86406533252683</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -816,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="I29">
-        <v>96.5701498421321</v>
+        <v>95.30154292309886</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="G38">
-        <v>98.80431091244064</v>
+        <v>95.46878737064264</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -896,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="G39">
-        <v>98.43771467268675</v>
+        <v>99.09465765755139</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -904,7 +904,7 @@
         <v>46</v>
       </c>
       <c r="H40">
-        <v>98.44083755300801</v>
+        <v>97.8679578120345</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -912,7 +912,7 @@
         <v>47</v>
       </c>
       <c r="H41">
-        <v>98.61522676209977</v>
+        <v>99.25694077661305</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="I44">
-        <v>96.08358411283866</v>
+        <v>96.82041423455104</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -944,7 +944,7 @@
         <v>51</v>
       </c>
       <c r="I45">
-        <v>90.99781590956033</v>
+        <v>94.2249971903003</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1016,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="G54">
-        <v>96.41618907505205</v>
+        <v>97.06109523406683</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1024,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="G55">
-        <v>95.89417146762578</v>
+        <v>98.26278400375924</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1032,7 +1032,7 @@
         <v>62</v>
       </c>
       <c r="H56">
-        <v>98.10516031525961</v>
+        <v>97.1206651797401</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1040,7 +1040,7 @@
         <v>63</v>
       </c>
       <c r="H57">
-        <v>98.06278609418102</v>
+        <v>98.31643848757544</v>
       </c>
     </row>
   </sheetData>
